--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_al.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_al.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A41507-A78E-4E8B-B271-16D1B2224093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBBB4F9-7C5D-D849-983E-A5380E56C935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -647,16 +647,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -680,9 +674,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,20 +981,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -1015,7 +1008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2700102</v>
       </c>
@@ -1026,7 +1019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2700201</v>
       </c>
@@ -1037,7 +1030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2700300</v>
       </c>
@@ -1048,7 +1041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2700409</v>
       </c>
@@ -1059,7 +1052,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2700508</v>
       </c>
@@ -1070,7 +1063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2700607</v>
       </c>
@@ -1081,7 +1074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2700706</v>
       </c>
@@ -1092,7 +1085,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2700805</v>
       </c>
@@ -1103,7 +1096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2700904</v>
       </c>
@@ -1114,7 +1107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2701001</v>
       </c>
@@ -1125,7 +1118,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2701100</v>
       </c>
@@ -1136,7 +1129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2701209</v>
       </c>
@@ -1147,7 +1140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2701308</v>
       </c>
@@ -1158,7 +1151,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2701357</v>
       </c>
@@ -1169,7 +1162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2701407</v>
       </c>
@@ -1180,7 +1173,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2701506</v>
       </c>
@@ -1191,7 +1184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2701605</v>
       </c>
@@ -1202,7 +1195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2701704</v>
       </c>
@@ -1213,7 +1206,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2701803</v>
       </c>
@@ -1224,7 +1217,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2701902</v>
       </c>
@@ -1235,7 +1228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2702009</v>
       </c>
@@ -1246,7 +1239,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2702108</v>
       </c>
@@ -1257,7 +1250,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2702207</v>
       </c>
@@ -1268,7 +1261,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2702306</v>
       </c>
@@ -1279,7 +1272,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2702355</v>
       </c>
@@ -1290,7 +1283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2702405</v>
       </c>
@@ -1301,7 +1294,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2702504</v>
       </c>
@@ -1312,7 +1305,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2702553</v>
       </c>
@@ -1323,7 +1316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2702603</v>
       </c>
@@ -1334,7 +1327,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2702702</v>
       </c>
@@ -1345,7 +1338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2702801</v>
       </c>
@@ -1356,7 +1349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2702900</v>
       </c>
@@ -1367,7 +1360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2703007</v>
       </c>
@@ -1378,7 +1371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2703106</v>
       </c>
@@ -1389,7 +1382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2703205</v>
       </c>
@@ -1400,7 +1393,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2703304</v>
       </c>
@@ -1411,7 +1404,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2703403</v>
       </c>
@@ -1422,7 +1415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2703502</v>
       </c>
@@ -1433,7 +1426,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2703601</v>
       </c>
@@ -1444,7 +1437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2703700</v>
       </c>
@@ -1455,7 +1448,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2703759</v>
       </c>
@@ -1466,7 +1459,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2703809</v>
       </c>
@@ -1477,7 +1470,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2703908</v>
       </c>
@@ -1488,7 +1481,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2704005</v>
       </c>
@@ -1499,7 +1492,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2704104</v>
       </c>
@@ -1510,7 +1503,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2704203</v>
       </c>
@@ -1521,7 +1514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2704302</v>
       </c>
@@ -1532,7 +1525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2704401</v>
       </c>
@@ -1543,7 +1536,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2704500</v>
       </c>
@@ -1554,7 +1547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2704609</v>
       </c>
@@ -1565,7 +1558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2704708</v>
       </c>
@@ -1576,7 +1569,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2704807</v>
       </c>
@@ -1587,7 +1580,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2704906</v>
       </c>
@@ -1598,7 +1591,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2705002</v>
       </c>
@@ -1609,7 +1602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2705101</v>
       </c>
@@ -1620,7 +1613,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2705200</v>
       </c>
@@ -1631,7 +1624,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2705309</v>
       </c>
@@ -1642,7 +1635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2705408</v>
       </c>
@@ -1653,7 +1646,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2705507</v>
       </c>
@@ -1664,7 +1657,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2705606</v>
       </c>
@@ -1675,7 +1668,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2705705</v>
       </c>
@@ -1686,7 +1679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2705804</v>
       </c>
@@ -1697,7 +1690,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2705903</v>
       </c>
@@ -1708,7 +1701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2706000</v>
       </c>
@@ -1719,7 +1712,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2706109</v>
       </c>
@@ -1730,7 +1723,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2706208</v>
       </c>
@@ -1741,7 +1734,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2706307</v>
       </c>
@@ -1752,7 +1745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2706406</v>
       </c>
@@ -1763,7 +1756,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2706422</v>
       </c>
@@ -1774,7 +1767,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2706448</v>
       </c>
@@ -1785,7 +1778,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2706505</v>
       </c>
@@ -1796,7 +1789,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2706604</v>
       </c>
@@ -1807,7 +1800,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2706703</v>
       </c>
@@ -1818,7 +1811,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2706802</v>
       </c>
@@ -1829,7 +1822,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2706901</v>
       </c>
@@ -1840,7 +1833,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2707008</v>
       </c>
@@ -1851,7 +1844,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2707107</v>
       </c>
@@ -1862,7 +1855,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2707206</v>
       </c>
@@ -1873,7 +1866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2707305</v>
       </c>
@@ -1884,7 +1877,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2707404</v>
       </c>
@@ -1895,7 +1888,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2707503</v>
       </c>
@@ -1906,7 +1899,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2707602</v>
       </c>
@@ -1917,7 +1910,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2707701</v>
       </c>
@@ -1928,7 +1921,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2707800</v>
       </c>
@@ -1939,7 +1932,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2707909</v>
       </c>
@@ -1950,7 +1943,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2708006</v>
       </c>
@@ -1961,7 +1954,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2708105</v>
       </c>
@@ -1972,7 +1965,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2708204</v>
       </c>
@@ -1983,7 +1976,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2708303</v>
       </c>
@@ -1994,7 +1987,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2708402</v>
       </c>
@@ -2005,7 +1998,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2708501</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2708600</v>
       </c>
@@ -2027,7 +2020,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2708709</v>
       </c>
@@ -2038,7 +2031,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2708808</v>
       </c>
@@ -2049,7 +2042,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2708907</v>
       </c>
@@ -2060,7 +2053,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2708956</v>
       </c>
@@ -2071,7 +2064,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2709004</v>
       </c>
@@ -2082,7 +2075,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2709103</v>
       </c>
@@ -2093,7 +2086,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2709152</v>
       </c>
@@ -2104,7 +2097,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2709202</v>
       </c>
@@ -2115,7 +2108,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2709301</v>
       </c>
@@ -2126,7 +2119,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2709400</v>
       </c>
@@ -2136,9 +2129,6 @@
       <c r="C103" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
